--- a/Pack.xlsx
+++ b/Pack.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="329">
   <si>
     <t>5AA5</t>
   </si>
@@ -1008,13 +1008,16 @@
   </si>
   <si>
     <t>Напряжение  4                             банка</t>
+  </si>
+  <si>
+    <t>Запрашиваем только при отображении на экране сведений о банках</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1053,8 +1056,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1070,6 +1079,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,19 +1408,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,15 +1441,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1456,12 +1462,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1473,15 +1473,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1500,19 +1491,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1522,6 +1501,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1803,139 +1839,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AE138"/>
+  <dimension ref="B3:AF138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>4</v>
@@ -1943,7 +1976,9 @@
       <c r="T5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -1954,42 +1989,42 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" t="s">
+      <c r="O6" s="50"/>
+      <c r="P6" t="s">
         <v>18</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2006,9 +2041,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2025,301 +2060,301 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="22"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="51" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="17"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="D12" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="E12" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="F12" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="G12" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="H12" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="I12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="J12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="K12" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="L12" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="53"/>
-    </row>
-    <row r="13" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="39" t="s">
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="39"/>
+    </row>
+    <row r="13" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="F13" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="G13" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="H13" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="I13" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="J13" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K13" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="53"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="39"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="53"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="29" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="39"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="D15" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="E15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="F15" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="G15" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="H15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="I15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="J15" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="K15" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="L15" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="M15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="N15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="28" t="s">
+      <c r="O15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="P15" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="P15" s="28" t="s">
+      <c r="Q15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="R15" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="S15" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="T15" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="T15" s="28" t="s">
+      <c r="U15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="27" t="s">
+      <c r="V15" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="V15" s="28" t="s">
+      <c r="W15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="W15" s="27" t="s">
+      <c r="X15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="X15" s="28" t="s">
+      <c r="Y15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Y15" s="27" t="s">
+      <c r="Z15" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="Z15" s="45" t="s">
+      <c r="AA15" s="35" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="33" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="2:32" s="26" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="38"/>
+      <c r="C16" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="F16" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="G16" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="H16" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="I16" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="J16" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="42"/>
+      <c r="L16" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="46" t="s">
+      <c r="M16" s="42"/>
+      <c r="N16" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="N16" s="47"/>
-      <c r="O16" s="46" t="s">
+      <c r="O16" s="42"/>
+      <c r="P16" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="46" t="s">
+      <c r="Q16" s="42"/>
+      <c r="R16" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="R16" s="47"/>
-      <c r="S16" s="46" t="s">
+      <c r="S16" s="42"/>
+      <c r="T16" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="T16" s="47"/>
-      <c r="U16" s="46" t="s">
+      <c r="U16" s="42"/>
+      <c r="V16" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="V16" s="47"/>
-      <c r="W16" s="46" t="s">
+      <c r="W16" s="42"/>
+      <c r="X16" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="46" t="s">
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="Z16" s="50"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="AA16" s="41"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2336,293 +2371,293 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="22"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="51" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="17"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="D20" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="E20" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="F20" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="G20" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="H20" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="I20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="J20" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="K20" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="L20" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="53"/>
-    </row>
-    <row r="21" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="39" t="s">
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="39"/>
+    </row>
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="F21" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="G21" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="H21" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="I21" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="J21" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="K21" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="53"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="L21" s="47"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="39"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="C22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="53"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="29" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="39"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="D23" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="E23" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="F23" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="G23" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="H23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="I23" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="J23" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="K23" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="L23" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="M23" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="27" t="s">
+      <c r="N23" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="N23" s="28" t="s">
+      <c r="O23" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="O23" s="27" t="s">
+      <c r="P23" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="P23" s="28" t="s">
+      <c r="Q23" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="R23" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="R23" s="28" t="s">
+      <c r="S23" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="S23" s="27" t="s">
+      <c r="T23" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="T23" s="28" t="s">
+      <c r="U23" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="U23" s="27" t="s">
+      <c r="V23" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="V23" s="28" t="s">
+      <c r="W23" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="W23" s="27" t="s">
+      <c r="X23" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="X23" s="28" t="s">
+      <c r="Y23" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="Y23" s="27" t="s">
+      <c r="Z23" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="Z23" s="45" t="s">
+      <c r="AA23" s="35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="33" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:27" s="26" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="38"/>
+      <c r="C24" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="42"/>
+      <c r="E24" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="F24" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="G24" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="48" t="s">
+      <c r="H24" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="I24" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="J24" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="46" t="s">
+      <c r="K24" s="42"/>
+      <c r="L24" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="L24" s="47"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="46" t="s">
+      <c r="M24" s="42"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="Z24" s="50"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="AA24" s="41"/>
+    </row>
+    <row r="26" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2634,262 +2669,262 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="22"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="51" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="17"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+      <c r="C28" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="D28" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="E28" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="F28" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="G28" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="H28" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="I28" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="J28" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="K28" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="L28" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="1"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="18"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="39" t="s">
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="21"/>
+      <c r="C29" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="F29" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="G29" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="H29" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="I29" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="I29" s="43" t="s">
+      <c r="J29" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="37" t="s">
+      <c r="K29" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="1"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="18"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="1"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="34"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="29" t="s">
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B31" s="20"/>
+      <c r="C31" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="D31" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="E31" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="F31" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="G31" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="H31" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="I31" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="J31" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="K31" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="L31" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="M31" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="M31" s="27" t="s">
+      <c r="N31" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="28" t="s">
+      <c r="O31" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="O31" s="27" t="s">
+      <c r="P31" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="P31" s="29" t="s">
+      <c r="Q31" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="Q31" s="27" t="s">
+      <c r="R31" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="R31" s="28" t="s">
+      <c r="S31" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="S31" s="27" t="s">
+      <c r="T31" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="T31" s="45" t="s">
+      <c r="U31" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" s="33" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="49" t="s">
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="2:27" s="26" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="38"/>
+      <c r="C32" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="42"/>
+      <c r="E32" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="F32" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="G32" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="H32" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="I32" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="I32" s="46" t="s">
+      <c r="J32" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="J32" s="47"/>
-      <c r="K32" s="46" t="s">
+      <c r="K32" s="42"/>
+      <c r="L32" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="L32" s="47"/>
-      <c r="M32" s="46" t="s">
+      <c r="M32" s="42"/>
+      <c r="N32" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="N32" s="47"/>
-      <c r="O32" s="46" t="s">
+      <c r="O32" s="42"/>
+      <c r="P32" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="46" t="s">
+      <c r="Q32" s="49"/>
+      <c r="R32" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="R32" s="47"/>
-      <c r="S32" s="46" t="s">
+      <c r="S32" s="42"/>
+      <c r="T32" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="T32" s="50"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2912,9 +2947,9 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2937,1676 +2972,1740 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-    </row>
-    <row r="36" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="X34" s="1"/>
+    </row>
+    <row r="36" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+    </row>
+    <row r="37" spans="2:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+    <row r="38" spans="2:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
         <v>0</v>
       </c>
-      <c r="B38" s="7">
+      <c r="C38" s="5">
         <v>2</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+    <row r="39" spans="2:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
         <v>10</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+    <row r="40" spans="2:24" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
         <v>17</v>
       </c>
-      <c r="B40" s="7">
+      <c r="C40" s="5">
         <v>2</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+    <row r="41" spans="2:24" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
         <v>18</v>
       </c>
-      <c r="B41" s="8">
+      <c r="C41" s="6">
         <v>2</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="E41" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+    <row r="42" spans="2:24" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
         <v>19</v>
       </c>
-      <c r="B42" s="7">
+      <c r="C42" s="5">
         <v>2</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-    </row>
-    <row r="43" spans="1:23" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+    </row>
+    <row r="43" spans="2:24" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="8">
+      <c r="C43" s="6">
         <v>2</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D43" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="2:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="7">
+      <c r="C44" s="5">
         <v>2</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D44" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+    <row r="45" spans="2:24" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
         <v>20</v>
       </c>
-      <c r="B45" s="8">
+      <c r="C45" s="6">
         <v>2</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="D45" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+    <row r="46" spans="2:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
         <v>30</v>
       </c>
-      <c r="B46" s="7">
+      <c r="C46" s="5">
         <v>2</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="E46" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+    <row r="47" spans="2:24" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="55">
         <v>31</v>
       </c>
-      <c r="B47" s="8">
+      <c r="C47" s="6">
         <v>2</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="D47" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+    <row r="48" spans="2:24" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="55">
         <v>32</v>
       </c>
-      <c r="B48" s="7">
+      <c r="C48" s="5">
         <v>2</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+    <row r="49" spans="2:12" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="B49" s="55">
         <v>33</v>
       </c>
-      <c r="B49" s="8">
+      <c r="C49" s="6">
         <v>2</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+    <row r="50" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="55">
         <v>34</v>
       </c>
-      <c r="B50" s="7">
+      <c r="C50" s="5">
         <v>2</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D50" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+    <row r="51" spans="2:12" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="55">
         <v>35</v>
       </c>
-      <c r="B51" s="8">
+      <c r="C51" s="6">
         <v>2</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="D51" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E51" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+    <row r="52" spans="2:12" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
         <v>36</v>
       </c>
-      <c r="B52" s="7">
+      <c r="C52" s="5">
         <v>2</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="8">
+      <c r="C53" s="6">
         <v>2</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="D53" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+    <row r="54" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="54">
         <v>40</v>
       </c>
-      <c r="B54" s="7">
+      <c r="C54" s="5">
         <v>2</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="G54" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+    </row>
+    <row r="55" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="54">
         <v>41</v>
       </c>
-      <c r="B55" s="8">
+      <c r="C55" s="6">
         <v>2</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="D55" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="E55" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+    </row>
+    <row r="56" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="54">
         <v>42</v>
       </c>
-      <c r="B56" s="7">
+      <c r="C56" s="5">
         <v>2</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="D56" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="E56" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
+    </row>
+    <row r="57" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="54">
         <v>43</v>
       </c>
-      <c r="B57" s="8">
+      <c r="C57" s="6">
         <v>2</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="D57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="E57" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+    </row>
+    <row r="58" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="54">
         <v>44</v>
       </c>
-      <c r="B58" s="7">
+      <c r="C58" s="5">
         <v>2</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="D58" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="E58" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+    </row>
+    <row r="59" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="54">
         <v>45</v>
       </c>
-      <c r="B59" s="8">
+      <c r="C59" s="6">
         <v>2</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="E59" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+    </row>
+    <row r="60" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="54">
         <v>46</v>
       </c>
-      <c r="B60" s="7">
+      <c r="C60" s="5">
         <v>2</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="D60" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+    </row>
+    <row r="61" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="54">
         <v>47</v>
       </c>
-      <c r="B61" s="8">
+      <c r="C61" s="6">
         <v>2</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="D61" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+    </row>
+    <row r="62" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="54">
         <v>48</v>
       </c>
-      <c r="B62" s="7">
+      <c r="C62" s="5">
         <v>2</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+    </row>
+    <row r="63" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="54">
         <v>49</v>
       </c>
-      <c r="B63" s="8">
+      <c r="C63" s="6">
         <v>2</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D63" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="E63" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+    </row>
+    <row r="64" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B64" s="5">
         <v>51</v>
       </c>
-      <c r="B64" s="7">
+      <c r="C64" s="5">
         <v>2</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="D64" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="E64" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+    <row r="65" spans="2:16" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="6">
         <v>70</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="C65" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="E65" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="2:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+    </row>
+    <row r="69" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="C69" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="D69" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="E69" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="F69" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="5">
         <v>0</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="2:16" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="C71" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="F71" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="2:16" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="F72" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="2:16" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="C73" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="F73" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+    <row r="74" spans="2:16" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B74" s="5">
         <v>10</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="F74" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+    <row r="75" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B75" s="6">
         <v>17</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="C75" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="D75" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="E75" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="F75" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="2:16" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="F76" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="F77" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="C78" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="F78" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="69" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="2:16" ht="69" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="C79" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="F79" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="69" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="2:16" ht="69" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="C80" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="F80" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
+    <row r="81" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="6">
         <v>20</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="C81" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="F81" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+    <row r="82" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="5">
         <v>21</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="F82" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+    <row r="83" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="56">
         <v>22</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="F83" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
+    <row r="84" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B84" s="5">
         <v>24</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="C84" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="F84" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+    <row r="85" spans="2:6" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="B85" s="6">
         <v>25</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="C85" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="F85" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+    <row r="86" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="57">
         <v>26</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C86" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="F86" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
+    <row r="87" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B87" s="56">
         <v>29</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="C87" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="F87" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B88" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="C88" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="F88" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
+    <row r="89" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="56">
         <v>32</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="C89" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="F89" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+    <row r="90" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B90" s="5">
         <v>34</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="F90" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+    <row r="91" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="F91" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+    <row r="92" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="C92" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="F92" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+    <row r="93" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="C93" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="F93" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+    <row r="94" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="F94" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
+    <row r="95" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B95" s="6">
         <v>40</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="C95" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="F95" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+    <row r="96" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="5">
         <v>41</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="C96" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="F96" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
+    <row r="97" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B97" s="6">
         <v>47</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="C97" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="F97" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+    <row r="98" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="5">
         <v>48</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="C98" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="F98" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
+    <row r="99" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
         <v>49</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="C99" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="F99" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+    <row r="100" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B100" s="5">
         <v>50</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="F100" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
+    <row r="101" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="57">
         <v>53</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="C101" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="F101" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+    <row r="102" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="5">
         <v>65</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="C102" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="F102" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
+    <row r="103" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B103" s="6">
         <v>66</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="C103" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E103" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="F103" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
+    <row r="104" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B104" s="5">
         <v>67</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="C104" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="F104" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
+    <row r="105" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B105" s="6">
         <v>68</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="C105" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="F105" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="120.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
+    <row r="106" spans="2:6" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="5">
         <v>70</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="C106" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="D106" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="E106" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="F106" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="8">
+    <row r="107" spans="2:6" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="B107" s="6">
         <v>71</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="C107" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="D107" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="E107" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="F107" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+    <row r="108" spans="2:6" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="B108" s="5">
         <v>72</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="C108" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="D108" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="E108" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="F108" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="8">
+    <row r="109" spans="2:6" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="B109" s="6">
         <v>73</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="C109" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="D109" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="E109" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="F109" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+    <row r="110" spans="2:6" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="B110" s="5">
         <v>74</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="C110" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="D110" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="E110" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="F110" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A111" s="8">
+    <row r="111" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B111" s="6">
         <v>75</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="C111" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="D111" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="E111" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="F111" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
+    <row r="112" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B112" s="5">
         <v>77</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="C112" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="D112" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="E112" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="F112" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A113" s="8">
+    <row r="113" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B113" s="6">
         <v>78</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="C113" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="D113" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="E113" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="F113" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
+    <row r="114" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B114" s="5">
         <v>79</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="C114" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="D114" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="E114" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="F114" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+    <row r="115" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="C115" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="D115" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="E115" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="F115" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+    <row r="116" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="C116" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="D116" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="E116" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="F116" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+    <row r="117" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="C117" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="D117" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="E117" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="F117" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+    <row r="118" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="C118" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="D118" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="E118" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="F118" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
+    <row r="119" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="C119" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="F119" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
+    <row r="120" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="C120" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="F120" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+    <row r="121" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="C121" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="F121" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
+    <row r="122" spans="2:6" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="C122" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="F122" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
+    <row r="123" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B123" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="C123" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="F123" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
+    <row r="124" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B124" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="C124" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="F124" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
+    <row r="125" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B125" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="C125" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C125" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="F125" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
+    <row r="126" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B126" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="C126" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E126" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="F126" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
+    <row r="127" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B127" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="C127" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="F127" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
+    <row r="128" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B128" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="C128" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E128" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="F128" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
+    <row r="129" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B129" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="C129" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="F129" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="172.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
+    <row r="130" spans="2:6" ht="172.5" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="C130" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E130" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="F130" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
+    <row r="131" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B131" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="C131" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="F131" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
+    <row r="132" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="C132" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="F132" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
+    <row r="133" spans="2:6" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="C133" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="F133" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
+    <row r="134" spans="2:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="C134" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="D134" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="E134" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="F134" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+    <row r="135" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B135" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="C135" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="D135" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="E135" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="F135" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
+    <row r="136" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="C136" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="D136" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="E136" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="F136" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
+    <row r="137" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B137" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="C137" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="D137" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="E137" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="F137" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
+    <row r="138" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="C138" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="D138" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="E138" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="F138" s="5" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
+  <mergeCells count="37">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G54:L63"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V24:W24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C46" r:id="rId1" location="30-status-register" display="https://github.com/etransport/ninebot-docs/wiki/ES2BMS - 30-status-register"/>
-    <hyperlink ref="D46" r:id="rId2" location="30-status-register" display="https://github.com/etransport/ninebot-docs/wiki/ES2BMS - 30-status-register"/>
+    <hyperlink ref="D46" r:id="rId1" location="30-status-register" display="https://github.com/etransport/ninebot-docs/wiki/ES2BMS - 30-status-register"/>
+    <hyperlink ref="E46" r:id="rId2" location="30-status-register" display="https://github.com/etransport/ninebot-docs/wiki/ES2BMS - 30-status-register"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Pack.xlsx
+++ b/Pack.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$B$68:$F$138</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1501,22 +1504,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1531,32 +1546,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1839,10 +1842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B3:AF138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,10 +2016,10 @@
       <c r="M6" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="50"/>
+      <c r="O6" s="44"/>
       <c r="P6" t="s">
         <v>18</v>
       </c>
@@ -2144,10 +2150,10 @@
     </row>
     <row r="13" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="29" t="s">
         <v>144</v>
       </c>
@@ -2166,10 +2172,10 @@
       <c r="J13" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="47"/>
+      <c r="L13" s="51"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
@@ -2298,10 +2304,10 @@
     </row>
     <row r="16" spans="2:32" s="26" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="38"/>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="36" t="s">
         <v>144</v>
       </c>
@@ -2317,42 +2323,42 @@
       <c r="I16" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="40" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="40" t="s">
+      <c r="M16" s="49"/>
+      <c r="N16" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="40" t="s">
+      <c r="O16" s="49"/>
+      <c r="P16" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="40" t="s">
+      <c r="Q16" s="49"/>
+      <c r="R16" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="40" t="s">
+      <c r="S16" s="49"/>
+      <c r="T16" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="U16" s="42"/>
-      <c r="V16" s="40" t="s">
+      <c r="U16" s="49"/>
+      <c r="V16" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="W16" s="42"/>
-      <c r="X16" s="40" t="s">
+      <c r="W16" s="49"/>
+      <c r="X16" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="40" t="s">
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AA16" s="41"/>
+      <c r="AA16" s="54"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -2459,10 +2465,10 @@
     </row>
     <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="29" t="s">
         <v>144</v>
       </c>
@@ -2481,10 +2487,10 @@
       <c r="J21" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="L21" s="47"/>
+      <c r="L21" s="51"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -2613,10 +2619,10 @@
     </row>
     <row r="24" spans="2:27" s="26" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="38"/>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="36" t="s">
         <v>144</v>
       </c>
@@ -2632,30 +2638,30 @@
       <c r="I24" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="40" t="s">
+      <c r="K24" s="49"/>
+      <c r="L24" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="40" t="s">
+      <c r="M24" s="49"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AA24" s="41"/>
+      <c r="AA24" s="54"/>
     </row>
     <row r="26" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
@@ -2744,10 +2750,10 @@
     </row>
     <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="47"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="29" t="s">
         <v>144</v>
       </c>
@@ -2766,10 +2772,10 @@
       <c r="J29" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="L29" s="47"/>
+      <c r="L29" s="51"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
@@ -2877,10 +2883,10 @@
     </row>
     <row r="32" spans="2:27" s="26" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="38"/>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="36" t="s">
         <v>144</v>
       </c>
@@ -2896,30 +2902,30 @@
       <c r="I32" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="40" t="s">
+      <c r="K32" s="49"/>
+      <c r="L32" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="M32" s="42"/>
-      <c r="N32" s="40" t="s">
+      <c r="M32" s="49"/>
+      <c r="N32" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="O32" s="42"/>
-      <c r="P32" s="40" t="s">
+      <c r="O32" s="49"/>
+      <c r="P32" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="40" t="s">
+      <c r="Q32" s="53"/>
+      <c r="R32" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="S32" s="42"/>
-      <c r="T32" s="40" t="s">
+      <c r="S32" s="49"/>
+      <c r="T32" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="U32" s="41"/>
+      <c r="U32" s="54"/>
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
       <c r="X32" s="25"/>
@@ -2975,12 +2981,12 @@
       <c r="X34" s="1"/>
     </row>
     <row r="36" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
     </row>
     <row r="37" spans="2:24" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
@@ -3133,7 +3139,7 @@
       </c>
     </row>
     <row r="47" spans="2:24" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="55">
+      <c r="B47" s="41">
         <v>31</v>
       </c>
       <c r="C47" s="6">
@@ -3147,7 +3153,7 @@
       </c>
     </row>
     <row r="48" spans="2:24" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="55">
+      <c r="B48" s="41">
         <v>32</v>
       </c>
       <c r="C48" s="5">
@@ -3161,7 +3167,7 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="55">
+      <c r="B49" s="41">
         <v>33</v>
       </c>
       <c r="C49" s="6">
@@ -3175,7 +3181,7 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="55">
+      <c r="B50" s="41">
         <v>34</v>
       </c>
       <c r="C50" s="5">
@@ -3189,7 +3195,7 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="55">
+      <c r="B51" s="41">
         <v>35</v>
       </c>
       <c r="C51" s="6">
@@ -3231,7 +3237,7 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="54">
+      <c r="B54" s="40">
         <v>40</v>
       </c>
       <c r="C54" s="5">
@@ -3243,17 +3249,17 @@
       <c r="E54" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="58" t="s">
+      <c r="G54" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
     </row>
     <row r="55" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="54">
+      <c r="B55" s="40">
         <v>41</v>
       </c>
       <c r="C55" s="6">
@@ -3265,15 +3271,15 @@
       <c r="E55" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
     </row>
     <row r="56" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="54">
+      <c r="B56" s="40">
         <v>42</v>
       </c>
       <c r="C56" s="5">
@@ -3285,15 +3291,15 @@
       <c r="E56" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
     </row>
     <row r="57" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="54">
+      <c r="B57" s="40">
         <v>43</v>
       </c>
       <c r="C57" s="6">
@@ -3305,15 +3311,15 @@
       <c r="E57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
     </row>
     <row r="58" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="54">
+      <c r="B58" s="40">
         <v>44</v>
       </c>
       <c r="C58" s="5">
@@ -3325,15 +3331,15 @@
       <c r="E58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
     </row>
     <row r="59" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="54">
+      <c r="B59" s="40">
         <v>45</v>
       </c>
       <c r="C59" s="6">
@@ -3345,15 +3351,15 @@
       <c r="E59" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
     </row>
     <row r="60" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="54">
+      <c r="B60" s="40">
         <v>46</v>
       </c>
       <c r="C60" s="5">
@@ -3365,15 +3371,15 @@
       <c r="E60" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
     </row>
     <row r="61" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="54">
+      <c r="B61" s="40">
         <v>47</v>
       </c>
       <c r="C61" s="6">
@@ -3385,15 +3391,15 @@
       <c r="E61" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
     </row>
     <row r="62" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="54">
+      <c r="B62" s="40">
         <v>48</v>
       </c>
       <c r="C62" s="5">
@@ -3405,15 +3411,15 @@
       <c r="E62" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
     </row>
     <row r="63" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="54">
+      <c r="B63" s="40">
         <v>49</v>
       </c>
       <c r="C63" s="6">
@@ -3425,12 +3431,12 @@
       <c r="E63" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
     </row>
     <row r="64" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B64" s="5">
@@ -3461,13 +3467,13 @@
       </c>
     </row>
     <row r="68" spans="2:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
     </row>
     <row r="69" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
@@ -3712,7 +3718,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="56">
+      <c r="B83" s="42">
         <v>22</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -3763,7 +3769,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="57">
+      <c r="B86" s="43">
         <v>26</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -3780,7 +3786,7 @@
       </c>
     </row>
     <row r="87" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B87" s="56">
+      <c r="B87" s="42">
         <v>29</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -3797,7 +3803,7 @@
       </c>
     </row>
     <row r="88" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="42" t="s">
         <v>174</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3814,7 +3820,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B89" s="56">
+      <c r="B89" s="42">
         <v>32</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -4018,7 +4024,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="57">
+      <c r="B101" s="43">
         <v>53</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -4392,7 +4398,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="41" t="s">
         <v>214</v>
       </c>
       <c r="C123" s="6" t="s">
@@ -4409,7 +4415,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="B124" s="55" t="s">
+      <c r="B124" s="41" t="s">
         <v>215</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -4426,7 +4432,7 @@
       </c>
     </row>
     <row r="125" spans="2:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="B125" s="55" t="s">
+      <c r="B125" s="41" t="s">
         <v>217</v>
       </c>
       <c r="C125" s="6" t="s">
@@ -4443,7 +4449,7 @@
       </c>
     </row>
     <row r="126" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B126" s="55" t="s">
+      <c r="B126" s="41" t="s">
         <v>219</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -4460,7 +4466,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B127" s="55" t="s">
+      <c r="B127" s="41" t="s">
         <v>220</v>
       </c>
       <c r="C127" s="6" t="s">
@@ -4477,7 +4483,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B128" s="55" t="s">
+      <c r="B128" s="41" t="s">
         <v>222</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -4494,7 +4500,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B129" s="55" t="s">
+      <c r="B129" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C129" s="6" t="s">
@@ -4528,7 +4534,7 @@
       </c>
     </row>
     <row r="131" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B131" s="57" t="s">
+      <c r="B131" s="43" t="s">
         <v>226</v>
       </c>
       <c r="C131" s="6" t="s">
@@ -4665,6 +4671,31 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G54:L63"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="J32:K32"/>
@@ -4677,37 +4708,12 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G54:L63"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V24:W24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D46" r:id="rId1" location="30-status-register" display="https://github.com/etransport/ninebot-docs/wiki/ES2BMS - 30-status-register"/>
     <hyperlink ref="E46" r:id="rId2" location="30-status-register" display="https://github.com/etransport/ninebot-docs/wiki/ES2BMS - 30-status-register"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins left="1.2204724409448819" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="61" fitToWidth="0" fitToHeight="3" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Pack.xlsx
+++ b/Pack.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$B$68:$F$138</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1504,34 +1501,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1546,20 +1531,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1842,13 +1839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B3:AF138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:F138"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,10 +2010,10 @@
       <c r="M6" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="44"/>
+      <c r="O6" s="50"/>
       <c r="P6" t="s">
         <v>18</v>
       </c>
@@ -2150,10 +2144,10 @@
     </row>
     <row r="13" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="29" t="s">
         <v>144</v>
       </c>
@@ -2172,10 +2166,10 @@
       <c r="J13" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="52" t="s">
+      <c r="K13" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="51"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
@@ -2304,10 +2298,10 @@
     </row>
     <row r="16" spans="2:32" s="26" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="38"/>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="36" t="s">
         <v>144</v>
       </c>
@@ -2323,42 +2317,42 @@
       <c r="I16" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="48" t="s">
+      <c r="K16" s="42"/>
+      <c r="L16" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="48" t="s">
+      <c r="M16" s="42"/>
+      <c r="N16" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="48" t="s">
+      <c r="O16" s="42"/>
+      <c r="P16" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="48" t="s">
+      <c r="Q16" s="42"/>
+      <c r="R16" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="48" t="s">
+      <c r="S16" s="42"/>
+      <c r="T16" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="U16" s="49"/>
-      <c r="V16" s="48" t="s">
+      <c r="U16" s="42"/>
+      <c r="V16" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="W16" s="49"/>
-      <c r="X16" s="48" t="s">
+      <c r="W16" s="42"/>
+      <c r="X16" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="48" t="s">
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AA16" s="54"/>
+      <c r="AA16" s="41"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -2465,10 +2459,10 @@
     </row>
     <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="29" t="s">
         <v>144</v>
       </c>
@@ -2487,10 +2481,10 @@
       <c r="J21" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="L21" s="51"/>
+      <c r="L21" s="47"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
@@ -2619,10 +2613,10 @@
     </row>
     <row r="24" spans="2:27" s="26" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="38"/>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="36" t="s">
         <v>144</v>
       </c>
@@ -2638,30 +2632,30 @@
       <c r="I24" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="J24" s="48" t="s">
+      <c r="J24" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="48" t="s">
+      <c r="K24" s="42"/>
+      <c r="L24" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="M24" s="49"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="48" t="s">
+      <c r="M24" s="42"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AA24" s="54"/>
+      <c r="AA24" s="41"/>
     </row>
     <row r="26" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
@@ -2750,10 +2744,10 @@
     </row>
     <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="29" t="s">
         <v>144</v>
       </c>
@@ -2772,10 +2766,10 @@
       <c r="J29" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="52" t="s">
+      <c r="K29" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="L29" s="51"/>
+      <c r="L29" s="47"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
@@ -2883,10 +2877,10 @@
     </row>
     <row r="32" spans="2:27" s="26" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="38"/>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="36" t="s">
         <v>144</v>
       </c>
@@ -2902,30 +2896,30 @@
       <c r="I32" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="K32" s="49"/>
-      <c r="L32" s="48" t="s">
+      <c r="K32" s="42"/>
+      <c r="L32" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="M32" s="49"/>
-      <c r="N32" s="48" t="s">
+      <c r="M32" s="42"/>
+      <c r="N32" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="O32" s="49"/>
-      <c r="P32" s="48" t="s">
+      <c r="O32" s="42"/>
+      <c r="P32" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="48" t="s">
+      <c r="Q32" s="49"/>
+      <c r="R32" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="S32" s="49"/>
-      <c r="T32" s="48" t="s">
+      <c r="S32" s="42"/>
+      <c r="T32" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="U32" s="54"/>
+      <c r="U32" s="41"/>
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
       <c r="X32" s="25"/>
@@ -2981,12 +2975,12 @@
       <c r="X34" s="1"/>
     </row>
     <row r="36" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
     </row>
     <row r="37" spans="2:24" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
@@ -3139,7 +3133,7 @@
       </c>
     </row>
     <row r="47" spans="2:24" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="41">
+      <c r="B47" s="55">
         <v>31</v>
       </c>
       <c r="C47" s="6">
@@ -3153,7 +3147,7 @@
       </c>
     </row>
     <row r="48" spans="2:24" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="41">
+      <c r="B48" s="55">
         <v>32</v>
       </c>
       <c r="C48" s="5">
@@ -3167,7 +3161,7 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="41">
+      <c r="B49" s="55">
         <v>33</v>
       </c>
       <c r="C49" s="6">
@@ -3181,7 +3175,7 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="41">
+      <c r="B50" s="55">
         <v>34</v>
       </c>
       <c r="C50" s="5">
@@ -3195,7 +3189,7 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="41">
+      <c r="B51" s="55">
         <v>35</v>
       </c>
       <c r="C51" s="6">
@@ -3237,7 +3231,7 @@
       </c>
     </row>
     <row r="54" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="40">
+      <c r="B54" s="54">
         <v>40</v>
       </c>
       <c r="C54" s="5">
@@ -3249,17 +3243,17 @@
       <c r="E54" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G54" s="56" t="s">
+      <c r="G54" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
     </row>
     <row r="55" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="40">
+      <c r="B55" s="54">
         <v>41</v>
       </c>
       <c r="C55" s="6">
@@ -3271,15 +3265,15 @@
       <c r="E55" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
     </row>
     <row r="56" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="40">
+      <c r="B56" s="54">
         <v>42</v>
       </c>
       <c r="C56" s="5">
@@ -3291,15 +3285,15 @@
       <c r="E56" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="58"/>
     </row>
     <row r="57" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="40">
+      <c r="B57" s="54">
         <v>43</v>
       </c>
       <c r="C57" s="6">
@@ -3311,15 +3305,15 @@
       <c r="E57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
     </row>
     <row r="58" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="40">
+      <c r="B58" s="54">
         <v>44</v>
       </c>
       <c r="C58" s="5">
@@ -3331,15 +3325,15 @@
       <c r="E58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
     </row>
     <row r="59" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="40">
+      <c r="B59" s="54">
         <v>45</v>
       </c>
       <c r="C59" s="6">
@@ -3351,15 +3345,15 @@
       <c r="E59" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
     </row>
     <row r="60" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="40">
+      <c r="B60" s="54">
         <v>46</v>
       </c>
       <c r="C60" s="5">
@@ -3371,15 +3365,15 @@
       <c r="E60" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
     </row>
     <row r="61" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="40">
+      <c r="B61" s="54">
         <v>47</v>
       </c>
       <c r="C61" s="6">
@@ -3391,15 +3385,15 @@
       <c r="E61" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
     </row>
     <row r="62" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="40">
+      <c r="B62" s="54">
         <v>48</v>
       </c>
       <c r="C62" s="5">
@@ -3411,15 +3405,15 @@
       <c r="E62" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
     </row>
     <row r="63" spans="2:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="40">
+      <c r="B63" s="54">
         <v>49</v>
       </c>
       <c r="C63" s="6">
@@ -3431,12 +3425,12 @@
       <c r="E63" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
     </row>
     <row r="64" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B64" s="5">
@@ -3467,13 +3461,13 @@
       </c>
     </row>
     <row r="68" spans="2:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
     </row>
     <row r="69" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
@@ -3718,7 +3712,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="42">
+      <c r="B83" s="56">
         <v>22</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -3769,7 +3763,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="43">
+      <c r="B86" s="57">
         <v>26</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -3786,7 +3780,7 @@
       </c>
     </row>
     <row r="87" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B87" s="42">
+      <c r="B87" s="56">
         <v>29</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -3803,7 +3797,7 @@
       </c>
     </row>
     <row r="88" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="56" t="s">
         <v>174</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3820,7 +3814,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B89" s="42">
+      <c r="B89" s="56">
         <v>32</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -4024,7 +4018,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="43">
+      <c r="B101" s="57">
         <v>53</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -4398,7 +4392,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B123" s="41" t="s">
+      <c r="B123" s="55" t="s">
         <v>214</v>
       </c>
       <c r="C123" s="6" t="s">
@@ -4415,7 +4409,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="55" t="s">
         <v>215</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -4432,7 +4426,7 @@
       </c>
     </row>
     <row r="125" spans="2:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="B125" s="41" t="s">
+      <c r="B125" s="55" t="s">
         <v>217</v>
       </c>
       <c r="C125" s="6" t="s">
@@ -4449,7 +4443,7 @@
       </c>
     </row>
     <row r="126" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B126" s="41" t="s">
+      <c r="B126" s="55" t="s">
         <v>219</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -4466,7 +4460,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B127" s="41" t="s">
+      <c r="B127" s="55" t="s">
         <v>220</v>
       </c>
       <c r="C127" s="6" t="s">
@@ -4483,7 +4477,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B128" s="41" t="s">
+      <c r="B128" s="55" t="s">
         <v>222</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -4500,7 +4494,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="55" t="s">
         <v>224</v>
       </c>
       <c r="C129" s="6" t="s">
@@ -4534,7 +4528,7 @@
       </c>
     </row>
     <row r="131" spans="2:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B131" s="43" t="s">
+      <c r="B131" s="57" t="s">
         <v>226</v>
       </c>
       <c r="C131" s="6" t="s">
@@ -4671,6 +4665,31 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G54:L63"/>
     <mergeCell ref="Z24:AA24"/>
     <mergeCell ref="Z16:AA16"/>
     <mergeCell ref="P16:Q16"/>
@@ -4683,37 +4702,12 @@
     <mergeCell ref="T24:U24"/>
     <mergeCell ref="X24:Y24"/>
     <mergeCell ref="V24:W24"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G54:L63"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D46" r:id="rId1" location="30-status-register" display="https://github.com/etransport/ninebot-docs/wiki/ES2BMS - 30-status-register"/>
     <hyperlink ref="E46" r:id="rId2" location="30-status-register" display="https://github.com/etransport/ninebot-docs/wiki/ES2BMS - 30-status-register"/>
   </hyperlinks>
-  <pageMargins left="1.2204724409448819" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" fitToWidth="0" fitToHeight="3" orientation="portrait" r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>